--- a/productos/producto_data.xlsx
+++ b/productos/producto_data.xlsx
@@ -190,7 +190,7 @@
         <v>59.99</v>
       </c>
       <c r="D4" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
